--- a/Documentos/equipo1/pruebasSprint4Equipo1.xlsx
+++ b/Documentos/equipo1/pruebasSprint4Equipo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omayra\Desktop\sprint4\Definitivas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278CE01B-999C-422E-801C-43CFF90EEEA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46062E-3B0D-4A9A-B2FC-31A7612208FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>ID Test</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Botón 9</t>
   </si>
   <si>
-    <t>Seguimiento de cadena</t>
-  </si>
-  <si>
     <t>Botón 10</t>
   </si>
   <si>
@@ -184,12 +181,6 @@
     <t>Solicitar pedidos</t>
   </si>
   <si>
-    <t>Crear producción Pilser</t>
-  </si>
-  <si>
-    <t>Crear producción Stout</t>
-  </si>
-  <si>
     <t>Botón 2.1</t>
   </si>
   <si>
@@ -208,12 +199,6 @@
     <t>Botón 9.3</t>
   </si>
   <si>
-    <t>Botón 11.1</t>
-  </si>
-  <si>
-    <t>Botón 11.2</t>
-  </si>
-  <si>
     <t>Redirección correcta a Lote.html</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>Redirección correcta a fabricaComenzarProduccion.html</t>
   </si>
   <si>
-    <t>fabricaComenzarProduccion.html</t>
-  </si>
-  <si>
     <t>Permite generar una producción a partir de un pedido resuelto de materias primas</t>
   </si>
   <si>
@@ -250,10 +232,7 @@
     <t>Al pulsar este boón aparecerán los botones 11.1 y 11.2 a través de los cuales se podrá comenzar la producción de cada uno de los tipos de cerveza</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Se comprobará que redirige correctamente a la vista de predicción en cuanto tengamos la última versión de la misma, por el momento únicamente sabemos que la url es correcta</t>
+    <t>Seguimiento de producciones</t>
   </si>
 </sst>
 </file>
@@ -694,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I51"/>
+  <dimension ref="A3:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,7 +803,7 @@
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -864,7 +843,7 @@
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -904,7 +883,7 @@
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -973,7 +952,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>13</v>
@@ -985,15 +964,15 @@
         <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>13</v>
@@ -1005,10 +984,10 @@
         <v>45</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1020,16 +999,16 @@
     </row>
     <row r="22" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>13</v>
@@ -1038,16 +1017,16 @@
     </row>
     <row r="23" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>13</v>
@@ -1056,16 +1035,16 @@
     </row>
     <row r="24" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>13</v>
@@ -1074,119 +1053,103 @@
     </row>
     <row r="25" spans="2:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
@@ -1348,35 +1311,15 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
